--- a/src/assets/BieuMau.xlsx
+++ b/src/assets/BieuMau.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản mới (Có / không)</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,9 +395,11 @@
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +412,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -417,6 +428,9 @@
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
